--- a/data/trans_orig/Q04C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q04C_2023-Provincia-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>96.77482898424469</v>
+        <v>96.77482898424473</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>95.36958675039699</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>94.72384136289794</v>
+        <v>94.76661052882149</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>93.77986775183945</v>
+        <v>93.81857508776345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94.78301336060828</v>
+        <v>94.7973273519594</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>98.98310050602596</v>
+        <v>99.44847293045066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>96.86872722842324</v>
+        <v>96.92284458477877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97.49765676528413</v>
+        <v>97.39557505713184</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>89.18472788503874</v>
+        <v>89.18472788503875</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>89.92599659235144</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>86.48209218594484</v>
+        <v>86.59990272474094</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>87.82829137234438</v>
+        <v>87.85393011176313</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87.81917994411431</v>
+        <v>87.80735778830392</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>92.4139600039961</v>
+        <v>92.39433938777911</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>92.02571244985086</v>
+        <v>91.94585430829582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>91.51876534050518</v>
+        <v>91.29575257267767</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>101.9263181062999</v>
+        <v>102.0307106531491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>98.18346096328901</v>
+        <v>98.00904214607641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>100.8825285688902</v>
+        <v>100.9138451422246</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>110.0929712953492</v>
+        <v>110.590462130883</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>104.4082641296916</v>
+        <v>104.8289453476453</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>106.3539837134985</v>
+        <v>106.4346344458999</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>110.3578488734235</v>
+        <v>110.3513032160918</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>99.40220535199299</v>
+        <v>99.37427618907759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106.7322846862926</v>
+        <v>106.8228729302456</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>134.9562880504055</v>
+        <v>135.6321069049858</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>108.5842011694177</v>
+        <v>108.4683462939951</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>120.8388255213578</v>
+        <v>122.1160054883224</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>93.82813875139625</v>
+        <v>93.81624488813929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>98.92952600177267</v>
+        <v>98.9913734855282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97.23063940328609</v>
+        <v>96.99840878713741</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>99.99634494643576</v>
+        <v>100.2514909843002</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>103.2030660564126</v>
+        <v>103.0747802024274</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>100.9462866518727</v>
+        <v>100.8362304698343</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>104.4902911635455</v>
+        <v>104.4411455921247</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>107.1778730350528</v>
+        <v>106.9856192491615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>106.7493031920741</v>
+        <v>106.5787683200533</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>112.8290069040183</v>
+        <v>112.6288857941085</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>115.2645858743595</v>
+        <v>115.3068627766506</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>112.4264155101715</v>
+        <v>112.5650258088201</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>102.2786608433773</v>
+        <v>102.2786608433772</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>100.7196181822307</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>99.03921795674812</v>
+        <v>98.94756421527961</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>97.96875568338727</v>
+        <v>98.1369949410598</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99.32728812843466</v>
+        <v>99.29618701774847</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>106.5152918071236</v>
+        <v>106.4436973580085</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>103.6441305987067</v>
+        <v>103.710136857505</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>104.0458942257647</v>
+        <v>103.7819099830265</v>
       </c>
     </row>
     <row r="25">
@@ -948,7 +948,7 @@
         <v>94.55244209376043</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>94.01267224828824</v>
+        <v>94.01267224828827</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>94.2788802592809</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>92.50713894010995</v>
+        <v>92.09875605314932</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>91.95479085311052</v>
+        <v>92.24601911438312</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92.79876193892358</v>
+        <v>92.66505133305623</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>97.56209210350902</v>
+        <v>97.22151914369627</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>96.11721343329656</v>
+        <v>96.21980155895154</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>96.06150307327349</v>
+        <v>95.98144593360909</v>
       </c>
     </row>
     <row r="28">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>99.7066431624573</v>
+        <v>99.70664316245728</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>97.96794578663156</v>
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>98.22438132829119</v>
+        <v>98.26126641646519</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>97.03715843406515</v>
+        <v>97.02348711374559</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97.95652304579369</v>
+        <v>97.95790118429818</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>101.4075618059946</v>
+        <v>101.3258760055758</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>99.03769534975852</v>
+        <v>99.1618718965771</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99.86026272587067</v>
+        <v>99.83538775534581</v>
       </c>
     </row>
     <row r="31">
